--- a/WB_API/file.xlsx
+++ b/WB_API/file.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -748,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16">
@@ -766,31 +766,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4670123590588</t>
+          <t>4607108659305</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Патчи тканевые набор(сыворотка 30 мл+патчи)</t>
+          <t>Anti Acne Cream, 30 мл</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>223</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>180</v>
@@ -799,22 +799,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4607108659305</t>
+          <t>4670123590588</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anti Acne Cream, 30 мл</t>
+          <t>Патчи тканевые набор(сыворотка 30 мл+патчи)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -916,10 +916,10 @@
         <v>144</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25">
@@ -961,49 +961,49 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4607108657080</t>
+          <t>4607108656427</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Гидролат болгарской розы, 100 мл</t>
+          <t>Масло для лица, шеи и зоны декольте, 100 мл</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4607108656427</t>
+          <t>4607108657080</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Масло для лица, шеи и зоны декольте, 100 мл</t>
+          <t>Гидролат болгарской розы, 100 мл</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1165,49 +1165,49 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4607108659497</t>
+          <t>4607108657752</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Твердый бальзам для всех типов волос, 30 гр</t>
+          <t>Гель для очищения лица со спирулиной (для любого типа кожи), 30 мл</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4607108657752</t>
+          <t>4607108659497</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Гель для очищения лица со спирулиной (для любого типа кожи), 30 мл</t>
+          <t>Твердый бальзам для всех типов волос, 30 гр</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1219,37 +1219,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4657821446638</t>
+          <t>4607108657844</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажер для лица 4D Sculpt Pro </t>
+          <t>Антицеллюлитный противоварикозный крем-маска "4D Effect", 250 мл</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4607108657844</t>
+          <t>4657821446638</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Антицеллюлитный противоварикозный крем-маска "4D Effect", 250 мл</t>
+          <t xml:space="preserve">Массажер для лица 4D Sculpt Pro </t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
         <v>69</v>
@@ -1303,64 +1303,64 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4640305451297</t>
+          <t>4607108659992</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Крем для лица с тональным эффектом SPF 20+ для смуглой кожи</t>
+          <t>Масло для тела Эко-лифтинг, 200 мл</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4607108659992</t>
+          <t>4607108656472</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Масло для тела Эко-лифтинг, 200 мл</t>
+          <t>Маска для лица альгинатная "Тонус", 75 гр</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4607108656472</t>
+          <t>4640305451297</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Маска для лица альгинатная "Тонус", 75 гр</t>
+          <t>Крем для лица с тональным эффектом SPF 20+ для смуглой кожи</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
@@ -1408,43 +1408,43 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4607108659343</t>
+          <t>4607108659190</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Гель для душа увлажняющий "Лемонграсс и розмарин", 250 мл</t>
+          <t>Расческа массажная</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4607108659190</t>
+          <t>4607108659343</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Расческа массажная</t>
+          <t>Гель для душа увлажняющий "Лемонграсс и розмарин", 250 мл</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>40</v>
@@ -1492,43 +1492,43 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4607108659329</t>
+          <t>4607108659244</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Гель для душа восстанавливающий "Лаванда и розовое дерево", 250 мл</t>
+          <t>Многофункциональная соль «Dr.Salt», 300 мл</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4607108659244</t>
+          <t>4607108659329</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Многофункциональная соль «Dr.Salt», 300 мл</t>
+          <t>Гель для душа восстанавливающий "Лаванда и розовое дерево", 250 мл</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -1570,43 +1570,43 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4607108656489</t>
+          <t>4607108657790</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Кунжутное масло, 250 мл</t>
+          <t>Эфирное масло пихты, 5 мл</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4607108657790</t>
+          <t>4607108656465</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Эфирное масло пихты, 5 мл</t>
+          <t>Антицеллюлитное масло с экстрактом ламинарии, 200 мл</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1618,22 +1618,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4607108656465</t>
+          <t>4607108656489</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Антицеллюлитное масло с экстрактом ламинарии, 200 мл</t>
+          <t>Кунжутное масло, 250 мл</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -1660,16 +1660,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4607108657806</t>
+          <t>4607108657776</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Эфирное масло эвкалипта, 5 мл</t>
+          <t>Эфирное масло мяты, 5 мл</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1681,43 +1681,43 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4607108656212</t>
+          <t>4607108657806</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Скраб для тела "Миндаль в шоколаде", 250 мл</t>
+          <t>Эфирное масло эвкалипта, 5 мл</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4607108657776</t>
+          <t>4607108656212</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Эфирное масло мяты, 5 мл</t>
+          <t>Скраб для тела "Миндаль в шоколаде", 250 мл</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">

--- a/WB_API/file.xlsx
+++ b/WB_API/file.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +538,10 @@
         <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7">
@@ -583,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11">
@@ -688,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -787,55 +787,55 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4670123590588</t>
+          <t>4607108657134</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Патчи тканевые набор(сыворотка 30 мл+патчи)</t>
+          <t>Бальзам-маска НАСЫЩЕНИЕ для всех типов волос, 300 мл</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4607108657134</t>
+          <t>4670123590588</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Бальзам-маска НАСЫЩЕНИЕ для всех типов волос, 300 мл</t>
+          <t>Патчи тканевые набор(сыворотка 30 мл+патчи)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -853,10 +853,10 @@
         <v>46</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -979,10 +979,10 @@
         <v>68</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -1135,64 +1135,64 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4607108656410</t>
+          <t>4607108659664</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Гидролат шалфея, 100 мл</t>
+          <t>Гель-молочко для умывания с цеолитом, для сухой и чувствительной кожи, 120 мл</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4607108659664</t>
+          <t>4607108657752</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Гель-молочко для умывания с цеолитом, для сухой и чувствительной кожи, 120 мл</t>
+          <t>Гель для очищения лица со спирулиной (для любого типа кожи), 30 мл</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4607108657752</t>
+          <t>4607108656410</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Гель для очищения лица со спирулиной (для любого типа кожи), 30 мл</t>
+          <t>Гидролат шалфея, 100 мл</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
@@ -1255,49 +1255,49 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4607108656458</t>
+          <t>4670123590557</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Масло для бровей и ресниц, 5 мл</t>
+          <t>Набор из 2-х флаконов шампуня облепихового</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4670123590557</t>
+          <t>4607108656458</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Набор из 2-х флаконов шампуня облепихового</t>
+          <t>Масло для бровей и ресниц, 5 мл</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
         <v>63</v>
@@ -1429,12 +1429,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4607108659343</t>
+          <t>4607108657097</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Гель для душа увлажняющий "Лемонграсс и розмарин", 250 мл</t>
+          <t>Масло для ухода за кутикулой и ногтями, 10 мл</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1450,12 +1450,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4607108657097</t>
+          <t>4607108659343</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Масло для ухода за кутикулой и ногтями, 10 мл</t>
+          <t>Гель для душа увлажняющий "Лемонграсс и розмарин", 250 мл</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
@@ -1501,97 +1501,97 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4607108659329</t>
+          <t>4607108656762</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Гель для душа восстанавливающий "Лаванда и розовое дерево", 250 мл</t>
+          <t>Силиконовая кисть для нанесения масок</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4607108656762</t>
+          <t>4607108659329</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Силиконовая кисть для нанесения масок</t>
+          <t>Гель для душа восстанавливающий "Лаванда и розовое дерево", 250 мл</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4607108657783</t>
+          <t>4607108657790</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Эфирное масло лаванды, 5 мл</t>
+          <t>Эфирное масло пихты, 5 мл</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4607108657790</t>
+          <t>4607108657783</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Эфирное масло пихты, 5 мл</t>
+          <t>Эфирное масло лаванды, 5 мл</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
@@ -1630,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>23</v>

--- a/WB_API/file.xlsx
+++ b/WB_API/file.xlsx
@@ -475,7 +475,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>860</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
       <c r="E6" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>236</v>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>123</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>2</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
